--- a/doc/需求文档/需求记录表.xlsx
+++ b/doc/需求文档/需求记录表.xlsx
@@ -641,14 +641,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -982,154 +982,154 @@
       </c>
     </row>
     <row r="2" spans="1:48" ht="14.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11" t="s">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="40.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="AL3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="11"/>
+      <c r="AM3" s="12"/>
       <c r="AN3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1194,8 +1194,8 @@
       <c r="AT3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" s="3" t="s">
@@ -1472,6 +1472,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AO2"/>
@@ -1488,27 +1509,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/需求文档/需求记录表.xlsx
+++ b/doc/需求文档/需求记录表.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制：销售验收日期&lt;=运营商验收、交付开始日期；运营商验收、交付完成日期&lt;=运营商签订合同开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,7 +1531,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1583,6 +1587,9 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -1594,6 +1601,9 @@
       <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
@@ -1603,7 +1613,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1616,6 +1629,9 @@
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
@@ -1627,6 +1643,9 @@
       <c r="C8" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -1638,6 +1657,9 @@
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
@@ -1649,6 +1671,9 @@
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -1703,6 +1728,9 @@
       </c>
       <c r="C15" s="10" t="s">
         <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
